--- a/REGULAR/ONT/COLETO, HANY ROY.xlsx
+++ b/REGULAR/ONT/COLETO, HANY ROY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB2C6E-2B58-4B38-801F-65034776700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -344,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1016,7 +1017,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1033,25 +1034,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K242" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K242" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1358,34 +1359,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A160" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+      <pane ySplit="3576" topLeftCell="A169"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +1407,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1425,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1446,7 +1447,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1454,7 +1455,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1467,7 +1468,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1484,7 +1485,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1528,7 +1529,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.097999999999985</v>
+        <v>52.347999999999985</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1538,12 +1539,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>104.292</v>
+        <v>110.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1566,7 +1567,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>40634</v>
       </c>
@@ -1586,7 +1587,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>40664</v>
       </c>
@@ -1610,7 +1611,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40695</v>
       </c>
@@ -1630,7 +1631,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40725</v>
       </c>
@@ -1650,7 +1651,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>40756</v>
       </c>
@@ -1670,7 +1671,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>40787</v>
       </c>
@@ -1690,7 +1691,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>40817</v>
       </c>
@@ -1710,7 +1711,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>40848</v>
       </c>
@@ -1730,7 +1731,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40878</v>
       </c>
@@ -1750,7 +1751,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>46</v>
       </c>
@@ -1768,7 +1769,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>40909</v>
       </c>
@@ -1788,7 +1789,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>40940</v>
       </c>
@@ -1808,7 +1809,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>40969</v>
       </c>
@@ -1828,7 +1829,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>41000</v>
       </c>
@@ -1848,7 +1849,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>41030</v>
       </c>
@@ -1868,7 +1869,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>41061</v>
       </c>
@@ -1888,7 +1889,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>41091</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>41122</v>
       </c>
@@ -1934,7 +1935,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>41153</v>
       </c>
@@ -1954,7 +1955,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -1974,7 +1975,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>41214</v>
       </c>
@@ -1994,7 +1995,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>41244</v>
       </c>
@@ -2014,7 +2015,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>49</v>
       </c>
@@ -2032,7 +2033,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>41275</v>
       </c>
@@ -2052,7 +2053,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>41306</v>
       </c>
@@ -2072,7 +2073,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>41334</v>
       </c>
@@ -2092,7 +2093,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>41365</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>41395</v>
       </c>
@@ -2138,7 +2139,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>41426</v>
       </c>
@@ -2158,7 +2159,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>41456</v>
       </c>
@@ -2182,7 +2183,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>41487</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>54</v>
@@ -2227,7 +2228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>41518</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>41548</v>
       </c>
@@ -2273,7 +2274,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>41579</v>
       </c>
@@ -2293,7 +2294,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>41609</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>58</v>
       </c>
@@ -2331,7 +2332,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>41640</v>
       </c>
@@ -2351,7 +2352,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>41671</v>
       </c>
@@ -2371,7 +2372,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>41699</v>
       </c>
@@ -2391,7 +2392,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>41730</v>
       </c>
@@ -2411,7 +2412,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>41760</v>
       </c>
@@ -2431,7 +2432,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>41791</v>
       </c>
@@ -2451,7 +2452,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>41821</v>
       </c>
@@ -2471,7 +2472,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>41852</v>
       </c>
@@ -2491,7 +2492,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>41883</v>
       </c>
@@ -2511,7 +2512,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>41913</v>
       </c>
@@ -2531,7 +2532,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>41944</v>
       </c>
@@ -2551,7 +2552,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>41974</v>
       </c>
@@ -2575,7 +2576,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>60</v>
       </c>
@@ -2593,7 +2594,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>42005</v>
       </c>
@@ -2613,7 +2614,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>42036</v>
       </c>
@@ -2633,7 +2634,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>42064</v>
       </c>
@@ -2653,7 +2654,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>42095</v>
       </c>
@@ -2673,7 +2674,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>42125</v>
       </c>
@@ -2693,7 +2694,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>42156</v>
       </c>
@@ -2713,7 +2714,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>42186</v>
       </c>
@@ -2733,7 +2734,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>42217</v>
       </c>
@@ -2753,7 +2754,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>42248</v>
       </c>
@@ -2773,7 +2774,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>42278</v>
       </c>
@@ -2793,7 +2794,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>42309</v>
       </c>
@@ -2813,7 +2814,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>42339</v>
       </c>
@@ -2837,7 +2838,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>61</v>
       </c>
@@ -2855,7 +2856,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>42370</v>
       </c>
@@ -2875,7 +2876,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>42401</v>
       </c>
@@ -2895,7 +2896,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>42430</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>42461</v>
       </c>
@@ -2941,7 +2942,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>42491</v>
       </c>
@@ -2961,7 +2962,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>42522</v>
       </c>
@@ -2981,7 +2982,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>42552</v>
       </c>
@@ -3001,7 +3002,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>42583</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>42614</v>
       </c>
@@ -3041,7 +3042,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>42644</v>
       </c>
@@ -3061,7 +3062,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>42675</v>
       </c>
@@ -3085,7 +3086,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>42705</v>
       </c>
@@ -3109,7 +3110,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>62</v>
       </c>
@@ -3127,7 +3128,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>42736</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>52</v>
@@ -3170,7 +3171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>70</v>
@@ -3187,7 +3188,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>42767</v>
       </c>
@@ -3207,7 +3208,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>42795</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>42826</v>
       </c>
@@ -3247,7 +3248,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>42856</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>71</v>
@@ -3292,7 +3293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>42887</v>
       </c>
@@ -3312,7 +3313,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>42917</v>
       </c>
@@ -3332,7 +3333,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>42948</v>
       </c>
@@ -3352,7 +3353,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>42979</v>
       </c>
@@ -3372,7 +3373,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>43009</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>43040</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>43070</v>
       </c>
@@ -3444,7 +3445,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>63</v>
       </c>
@@ -3462,7 +3463,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>43101</v>
       </c>
@@ -3482,7 +3483,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>43132</v>
       </c>
@@ -3502,7 +3503,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>43160</v>
       </c>
@@ -3522,7 +3523,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>43191</v>
       </c>
@@ -3542,7 +3543,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>43221</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>43252</v>
       </c>
@@ -3588,7 +3589,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>43282</v>
       </c>
@@ -3608,7 +3609,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>43313</v>
       </c>
@@ -3628,7 +3629,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>43344</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>80</v>
@@ -3673,7 +3674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>43374</v>
       </c>
@@ -3693,7 +3694,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>43405</v>
       </c>
@@ -3713,7 +3714,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>43435</v>
       </c>
@@ -3733,7 +3734,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>64</v>
       </c>
@@ -3751,7 +3752,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>43466</v>
       </c>
@@ -3771,7 +3772,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>43497</v>
       </c>
@@ -3791,7 +3792,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>43525</v>
       </c>
@@ -3811,7 +3812,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>43556</v>
       </c>
@@ -3831,7 +3832,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>43586</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>43603</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>85</v>
@@ -3874,7 +3875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>43617</v>
       </c>
@@ -3894,7 +3895,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>43647</v>
       </c>
@@ -3914,7 +3915,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>43678</v>
       </c>
@@ -3934,7 +3935,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>43709</v>
       </c>
@@ -3954,7 +3955,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>43739</v>
       </c>
@@ -3974,7 +3975,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>43770</v>
       </c>
@@ -3994,7 +3995,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>43800</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>89</v>
       </c>
@@ -4038,7 +4039,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>43831</v>
       </c>
@@ -4058,7 +4059,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>43862</v>
       </c>
@@ -4078,7 +4079,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>43891</v>
       </c>
@@ -4098,7 +4099,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>43922</v>
       </c>
@@ -4118,7 +4119,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>43952</v>
       </c>
@@ -4138,7 +4139,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>43983</v>
       </c>
@@ -4158,7 +4159,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>44013</v>
       </c>
@@ -4178,7 +4179,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>44044</v>
       </c>
@@ -4198,7 +4199,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>44075</v>
       </c>
@@ -4218,7 +4219,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>44105</v>
       </c>
@@ -4238,7 +4239,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>44136</v>
       </c>
@@ -4258,7 +4259,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>44166</v>
       </c>
@@ -4282,7 +4283,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>90</v>
       </c>
@@ -4300,7 +4301,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>44197</v>
       </c>
@@ -4320,7 +4321,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>44228</v>
       </c>
@@ -4340,7 +4341,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>44256</v>
       </c>
@@ -4360,7 +4361,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>44287</v>
       </c>
@@ -4380,7 +4381,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>44317</v>
       </c>
@@ -4400,7 +4401,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>44348</v>
       </c>
@@ -4420,7 +4421,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>44378</v>
       </c>
@@ -4440,7 +4441,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>44409</v>
       </c>
@@ -4460,7 +4461,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>44440</v>
       </c>
@@ -4480,7 +4481,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>44470</v>
       </c>
@@ -4500,7 +4501,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>44501</v>
       </c>
@@ -4520,7 +4521,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>44531</v>
       </c>
@@ -4544,7 +4545,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="48" t="s">
         <v>91</v>
       </c>
@@ -4562,7 +4563,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>44562</v>
       </c>
@@ -4582,7 +4583,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>44593</v>
       </c>
@@ -4602,7 +4603,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>44621</v>
       </c>
@@ -4622,7 +4623,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>44652</v>
       </c>
@@ -4642,7 +4643,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>44682</v>
       </c>
@@ -4662,7 +4663,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>44713</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>44743</v>
       </c>
@@ -4708,7 +4709,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>44774</v>
       </c>
@@ -4728,7 +4729,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>44805</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>44835</v>
       </c>
@@ -4774,7 +4775,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>44866</v>
       </c>
@@ -4798,7 +4799,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>44896</v>
       </c>
@@ -4818,7 +4819,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="48" t="s">
         <v>95</v>
       </c>
@@ -4836,9 +4837,9 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -4856,9 +4857,9 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B171" s="20" t="s">
         <v>69</v>
@@ -4880,9 +4881,9 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B172" s="20" t="s">
         <v>96</v>
@@ -4906,7 +4907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>98</v>
@@ -4928,9 +4929,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13">
@@ -4948,20 +4949,22 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B175" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C175" s="13"/>
+      <c r="C175" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D175" s="39"/>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G175" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
@@ -4970,81 +4973,89 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B176" s="20"/>
-      <c r="C176" s="13"/>
+      <c r="C176" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D176" s="39"/>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G176" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B177" s="20"/>
-      <c r="C177" s="13"/>
+      <c r="C177" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D177" s="39"/>
       <c r="E177" s="9"/>
       <c r="F177" s="20"/>
-      <c r="G177" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G177" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H177" s="39"/>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B178" s="20"/>
-      <c r="C178" s="13"/>
+      <c r="C178" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D178" s="39"/>
       <c r="E178" s="9"/>
       <c r="F178" s="20"/>
-      <c r="G178" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G178" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H178" s="39"/>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B179" s="20"/>
-      <c r="C179" s="13"/>
+      <c r="C179" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D179" s="39"/>
       <c r="E179" s="9"/>
       <c r="F179" s="20"/>
-      <c r="G179" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G179" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H179" s="39"/>
       <c r="I179" s="9"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5060,9 +5071,9 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5078,9 +5089,9 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5096,9 +5107,9 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5114,9 +5125,9 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5132,9 +5143,9 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5150,9 +5161,9 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5168,9 +5179,9 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5186,9 +5197,9 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5204,9 +5215,9 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5222,9 +5233,9 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5240,9 +5251,9 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5258,9 +5269,9 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5276,9 +5287,9 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5294,9 +5305,9 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5312,9 +5323,9 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5330,9 +5341,9 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5348,9 +5359,9 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5366,9 +5377,9 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5384,9 +5395,9 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <v>45778</v>
+        <v>45808</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5402,9 +5413,9 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5420,9 +5431,9 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5438,9 +5449,9 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <v>45870</v>
+        <v>45900</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5456,9 +5467,9 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <v>45901</v>
+        <v>45930</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5474,9 +5485,9 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>45931</v>
+        <v>45961</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5492,9 +5503,9 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5510,9 +5521,9 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <v>45992</v>
+        <v>46022</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5528,9 +5539,9 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <v>46023</v>
+        <v>46053</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5546,9 +5557,9 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <v>46054</v>
+        <v>46081</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5564,9 +5575,9 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <v>46082</v>
+        <v>46112</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5582,9 +5593,9 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <v>46113</v>
+        <v>46142</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5600,9 +5611,9 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <v>46143</v>
+        <v>46173</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5618,9 +5629,9 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <v>46174</v>
+        <v>46203</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5636,7 +5647,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5652,7 +5663,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5668,7 +5679,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5684,7 +5695,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5700,7 +5711,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5716,7 +5727,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5732,7 +5743,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -5748,7 +5759,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -5764,7 +5775,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -5780,7 +5791,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -5796,7 +5807,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -5812,7 +5823,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -5828,7 +5839,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -5844,7 +5855,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -5860,7 +5871,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -5876,7 +5887,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -5892,7 +5903,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -5908,7 +5919,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -5924,7 +5935,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -5940,7 +5951,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -5956,7 +5967,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -5972,7 +5983,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -5988,7 +5999,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6004,7 +6015,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6020,7 +6031,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6036,7 +6047,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6052,7 +6063,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -6068,7 +6079,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -6084,7 +6095,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -6100,7 +6111,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="41"/>
       <c r="B242" s="15"/>
       <c r="C242" s="42"/>
@@ -6131,10 +6142,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6157,28 +6168,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6191,7 +6202,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6220,7 +6231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -6240,17 +6251,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6271,7 +6282,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6298,7 +6309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6324,7 +6335,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6350,7 +6361,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6376,7 +6387,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6428,7 +6439,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6454,7 +6465,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6480,7 +6491,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6500,7 +6511,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6520,7 +6531,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6540,7 +6551,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6561,7 +6572,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6582,7 +6593,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6603,7 +6614,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6624,7 +6635,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6645,7 +6656,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6666,7 +6677,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6687,7 +6698,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6708,7 +6719,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6729,7 +6740,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6750,7 +6761,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6771,7 +6782,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6792,7 +6803,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6813,7 +6824,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6834,7 +6845,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6855,7 +6866,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6876,7 +6887,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6897,7 +6908,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6918,7 +6929,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6939,7 +6950,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6960,7 +6971,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6969,7 +6980,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6978,7 +6989,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6987,7 +6998,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6996,7 +7007,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7005,7 +7016,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7014,7 +7025,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7023,7 +7034,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7032,7 +7043,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7041,7 +7052,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7050,7 +7061,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7059,7 +7070,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7068,7 +7079,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7077,7 +7088,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7086,7 +7097,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7095,7 +7106,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7104,7 +7115,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7113,7 +7124,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7122,7 +7133,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7131,7 +7142,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7140,7 +7151,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7149,7 +7160,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7158,7 +7169,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7167,7 +7178,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7176,7 +7187,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7185,7 +7196,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7194,7 +7205,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7203,7 +7214,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7212,7 +7223,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7221,7 +7232,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
